--- a/SIGVerse/dataset/similar/3LDK/3LDK_09/position/3LDK_9_position.xlsx
+++ b/SIGVerse/dataset/similar/3LDK/3LDK_09/position/3LDK_9_position.xlsx
@@ -1,257 +1,744 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akira\Dropbox\SpCoNavi\CoRL\dataset\similar\3LDK\3LDK_09\position\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="3LDK_9_position" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="3LDK_9_position" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">index</t>
+    <t>index</t>
   </si>
   <si>
-    <t xml:space="preserve">theta</t>
+    <t>theta</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t>y</t>
   </si>
   <si>
-    <t xml:space="preserve">sin</t>
+    <t>sin</t>
   </si>
   <si>
-    <t xml:space="preserve">cos</t>
+    <t>cos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="TakaoPGothic"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>x</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -260,7 +747,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>3LDK_9_position!$C$1</c:f>
+              <c:f>'3LDK_9_position'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -270,42 +757,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>3LDK_9_position!$D$2:$D$165</c:f>
+              <c:f>'3LDK_9_position'!$D$2:$D$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14</c:v>
+                  <c:v>-0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.42</c:v>
@@ -389,7 +872,7 @@
                   <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.24</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.9</c:v>
@@ -410,7 +893,7 @@
                   <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.99</c:v>
@@ -431,7 +914,7 @@
                   <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.16</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1.37</c:v>
@@ -455,7 +938,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.19</c:v>
+                  <c:v>4.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4.78</c:v>
@@ -473,7 +956,7 @@
                   <c:v>4.84</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.06</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3.46</c:v>
@@ -482,7 +965,7 @@
                   <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.44</c:v>
@@ -491,7 +974,7 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.53</c:v>
@@ -509,13 +992,13 @@
                   <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.14</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.26</c:v>
@@ -530,7 +1013,7 @@
                   <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.09</c:v>
+                  <c:v>-1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>-1.4</c:v>
@@ -542,7 +1025,7 @@
                   <c:v>-1.89</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.07</c:v>
+                  <c:v>-2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-2.25</c:v>
@@ -551,16 +1034,16 @@
                   <c:v>-2.4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.53</c:v>
+                  <c:v>-2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.49</c:v>
+                  <c:v>-2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-2.42</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.1</c:v>
+                  <c:v>-1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>-0.54</c:v>
@@ -629,22 +1112,22 @@
                   <c:v>-5.12</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-4.85</c:v>
+                  <c:v>-4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>-4.58</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-4.61</c:v>
+                  <c:v>-4.6100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-4.85</c:v>
+                  <c:v>-4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-4.85</c:v>
+                  <c:v>-4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-4.98</c:v>
+                  <c:v>-4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>-5.12</c:v>
@@ -659,7 +1142,7 @@
                   <c:v>-4.55</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-4.89</c:v>
+                  <c:v>-4.8899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>-5.17</c:v>
@@ -668,7 +1151,7 @@
                   <c:v>-5.04</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-4.73</c:v>
+                  <c:v>-4.7300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>-4.76</c:v>
@@ -677,7 +1160,7 @@
                   <c:v>-4.46</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-4.06</c:v>
+                  <c:v>-4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>-4.12</c:v>
@@ -710,7 +1193,7 @@
                   <c:v>-5.2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-4.65</c:v>
+                  <c:v>-4.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>-4.08</c:v>
@@ -750,58 +1233,16 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>-2.76</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.272654659766264</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1.53461481095621</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2.40165616029743</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3.46002394628266</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>4.45859918219281</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5.94019585111501</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-0.95064360484892</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-1.12456403367975</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-2.84766882877237</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-3.17452454087275</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-4.44268216890854</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-5.54931270361957</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.467710755345836</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1.81003890878577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>3LDK_9_position!$C$2:$C$165</c:f>
+              <c:f>'3LDK_9_position'!$C$2:$C$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>4.08</c:v>
                 </c:pt>
@@ -815,22 +1256,22 @@
                   <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.15</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.44</c:v>
+                  <c:v>4.4400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.44</c:v>
+                  <c:v>4.4400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.31</c:v>
+                  <c:v>4.3099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.39</c:v>
+                  <c:v>4.3899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.15</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.03</c:v>
@@ -884,7 +1325,7 @@
                   <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.53</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.76</c:v>
@@ -896,13 +1337,13 @@
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.28</c:v>
@@ -920,7 +1361,7 @@
                   <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.94</c:v>
@@ -935,7 +1376,7 @@
                   <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.14</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.69</c:v>
@@ -962,7 +1403,7 @@
                   <c:v>-0.94</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.13</c:v>
+                  <c:v>-1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-0.98</c:v>
@@ -980,7 +1421,7 @@
                   <c:v>-1.59</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.2</c:v>
+                  <c:v>-2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-3.11</c:v>
@@ -992,7 +1433,7 @@
                   <c:v>-2.35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.05</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>-1.56</c:v>
@@ -1031,10 +1472,10 @@
                   <c:v>-2.36</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.43</c:v>
+                  <c:v>-2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.3</c:v>
+                  <c:v>-2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-2.04</c:v>
@@ -1043,13 +1484,13 @@
                   <c:v>-2.02</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.26</c:v>
+                  <c:v>-2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-2.35</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.49</c:v>
+                  <c:v>-2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-2.73</c:v>
@@ -1106,7 +1547,7 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>1.05</c:v>
@@ -1142,10 +1583,10 @@
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.09</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>1.31</c:v>
@@ -1166,10 +1607,10 @@
                   <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.58</c:v>
+                  <c:v>-0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.57</c:v>
+                  <c:v>-0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>-0.7</c:v>
@@ -1202,7 +1643,7 @@
                   <c:v>-2.16</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-2.45</c:v>
+                  <c:v>-2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>-1.97</c:v>
@@ -1220,10 +1661,10 @@
                   <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.22</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>2.85</c:v>
@@ -1251,59 +1692,25 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-4.10828562227319</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-4.33980061978784</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-3.81899783340965</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-4.4471051373139</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-3.70236989660986</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-3.64795464655648</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-3.95037844241525</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-3.88304060076983</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-4.15117168167192</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-3.73203646708003</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-3.97079504569487</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-4.22220247866524</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-3.89929964490757</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-3.87170032343123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35305338"/>
-        <c:axId val="59077220"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199985016"/>
+        <c:axId val="502549064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35305338"/>
+        <c:axId val="199985016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,50 +1718,61 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59077220"/>
+        <c:crossAx val="502549064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59077220"/>
+        <c:axId val="502549064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,45 +1780,56 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35305338"/>
+        <c:crossAx val="199985016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1409,68 +1838,92 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Chart Title</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1480,7 +1933,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>3LDK_9_position!$C$1</c:f>
+              <c:f>'3LDK_9_position'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,25 +1944,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>3LDK_9_position!$C$2:$C$151</c:f>
+              <c:f>'3LDK_9_position'!$C$2:$C$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
@@ -1526,22 +1971,22 @@
                   <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.15</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.44</c:v>
+                  <c:v>4.4400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.44</c:v>
+                  <c:v>4.4400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.31</c:v>
+                  <c:v>4.3099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.39</c:v>
+                  <c:v>4.3899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.15</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.03</c:v>
@@ -1595,7 +2040,7 @@
                   <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.53</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.76</c:v>
@@ -1607,13 +2052,13 @@
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.28</c:v>
@@ -1631,7 +2076,7 @@
                   <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.94</c:v>
@@ -1646,7 +2091,7 @@
                   <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.14</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.69</c:v>
@@ -1673,7 +2118,7 @@
                   <c:v>-0.94</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.13</c:v>
+                  <c:v>-1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-0.98</c:v>
@@ -1691,7 +2136,7 @@
                   <c:v>-1.59</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.2</c:v>
+                  <c:v>-2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-3.11</c:v>
@@ -1703,7 +2148,7 @@
                   <c:v>-2.35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.05</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>-1.56</c:v>
@@ -1742,10 +2187,10 @@
                   <c:v>-2.36</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.43</c:v>
+                  <c:v>-2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.3</c:v>
+                  <c:v>-2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-2.04</c:v>
@@ -1754,13 +2199,13 @@
                   <c:v>-2.02</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.26</c:v>
+                  <c:v>-2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-2.35</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.49</c:v>
+                  <c:v>-2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-2.73</c:v>
@@ -1817,7 +2262,7 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>1.05</c:v>
@@ -1853,10 +2298,10 @@
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.09</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>1.31</c:v>
@@ -1877,10 +2322,10 @@
                   <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.58</c:v>
+                  <c:v>-0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.57</c:v>
+                  <c:v>-0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>-0.7</c:v>
@@ -1913,7 +2358,7 @@
                   <c:v>-2.16</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-2.45</c:v>
+                  <c:v>-2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>-1.97</c:v>
@@ -1931,10 +2376,10 @@
                   <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.22</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>2.85</c:v>
@@ -1972,7 +2417,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>3LDK_9_position!$D$1</c:f>
+              <c:f>'3LDK_9_position'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1983,25 +2428,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>3LDK_9_position!$D$2:$D$151</c:f>
+              <c:f>'3LDK_9_position'!$D$2:$D$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
@@ -2009,7 +2446,7 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14</c:v>
+                  <c:v>-0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.42</c:v>
@@ -2093,7 +2530,7 @@
                   <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.24</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.9</c:v>
@@ -2114,7 +2551,7 @@
                   <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.12</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.99</c:v>
@@ -2135,7 +2572,7 @@
                   <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.16</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1.37</c:v>
@@ -2159,7 +2596,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.19</c:v>
+                  <c:v>4.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4.78</c:v>
@@ -2177,7 +2614,7 @@
                   <c:v>4.84</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.06</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3.46</c:v>
@@ -2186,7 +2623,7 @@
                   <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.44</c:v>
@@ -2195,7 +2632,7 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.53</c:v>
@@ -2213,13 +2650,13 @@
                   <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.14</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.26</c:v>
@@ -2234,7 +2671,7 @@
                   <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.09</c:v>
+                  <c:v>-1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>-1.4</c:v>
@@ -2246,7 +2683,7 @@
                   <c:v>-1.89</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.07</c:v>
+                  <c:v>-2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-2.25</c:v>
@@ -2255,16 +2692,16 @@
                   <c:v>-2.4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.53</c:v>
+                  <c:v>-2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.49</c:v>
+                  <c:v>-2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-2.42</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.1</c:v>
+                  <c:v>-1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>-0.54</c:v>
@@ -2333,22 +2770,22 @@
                   <c:v>-5.12</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-4.85</c:v>
+                  <c:v>-4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>-4.58</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-4.61</c:v>
+                  <c:v>-4.6100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-4.85</c:v>
+                  <c:v>-4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-4.85</c:v>
+                  <c:v>-4.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-4.98</c:v>
+                  <c:v>-4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>-5.12</c:v>
@@ -2363,7 +2800,7 @@
                   <c:v>-4.55</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-4.89</c:v>
+                  <c:v>-4.8899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>-5.17</c:v>
@@ -2372,7 +2809,7 @@
                   <c:v>-5.04</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-4.73</c:v>
+                  <c:v>-4.7300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>-4.76</c:v>
@@ -2381,7 +2818,7 @@
                   <c:v>-4.46</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-4.06</c:v>
+                  <c:v>-4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>-4.12</c:v>
@@ -2414,7 +2851,7 @@
                   <c:v>-5.2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-4.65</c:v>
+                  <c:v>-4.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>-4.08</c:v>
@@ -2459,56 +2896,71 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="15719782"/>
-        <c:axId val="12789988"/>
+        <c:axId val="437852016"/>
+        <c:axId val="437851624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15719782"/>
+        <c:axId val="437852016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12789988"/>
+        <c:crossAx val="437851624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12789988"/>
+        <c:axId val="437851624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,139 +2968,1296 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6480">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15719782"/>
+        <c:crossAx val="437852016"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>181080</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>51168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="図 1" descr=""/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4882320" y="466560"/>
-          <a:ext cx="6582600" cy="4727520"/>
+          <a:off x="4295775" y="466724"/>
+          <a:ext cx="5800725" cy="4727944"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>783360</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5310720" y="509400"/>
-        <a:ext cx="6442560" cy="4528800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2658,27 +4267,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>171360</xdr:colOff>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>237600</xdr:colOff>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4872600" y="5452920"/>
-        <a:ext cx="7118640" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2691,3407 +4300,3300 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H141" activeCellId="1" sqref="C152:D166 H141"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>115.96</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>4.08</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0.16</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>-0.899099868</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.4377435634</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="E2">
+        <v>-0.89909986799999997</v>
+      </c>
+      <c r="F2">
+        <v>0.43774356339999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>-178.65</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>3.99</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.0235597648</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.9997224302</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="D3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>2.3559764800000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.99972243019999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>116.65</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3.95</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>-0.42</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>-0.8937631529</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.448539214</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="E4">
+        <v>-0.89376315289999997</v>
+      </c>
+      <c r="F4">
+        <v>0.44853921400000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>-168.25</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>3.96</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>-0.63</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>0.2036417511</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.9790454725</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="E5">
+        <v>0.20364175109999999</v>
+      </c>
+      <c r="F5">
+        <v>0.97904547249999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>-164.84</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D6">
         <v>-0.72</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0.2615154062</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.9651993019</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="E6">
+        <v>0.26151540620000002</v>
+      </c>
+      <c r="F6">
+        <v>0.96519930190000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>-135.09</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D7">
         <v>-0.81</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0.7059951886</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.7082166291</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="E7">
+        <v>0.70599518859999999</v>
+      </c>
+      <c r="F7">
+        <v>0.70821662910000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>-160.83</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8">
+        <v>-160.83000000000001</v>
+      </c>
+      <c r="C8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D8">
         <v>-0.38</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0.3283721274</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.944548435</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="E8">
+        <v>0.32837212739999999</v>
+      </c>
+      <c r="F8">
+        <v>0.94454843499999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>96.57</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D9">
         <v>0.11</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>-0.9934328104</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9">
+        <v>-0.99343281039999998</v>
+      </c>
+      <c r="F9">
         <v>0.114417006</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>100.66</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>-0.9827421768</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.1849805771</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="E10">
+        <v>-0.98274217679999998</v>
+      </c>
+      <c r="F10">
+        <v>0.18498057709999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>165.4</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D11">
         <v>0.2</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>-0.2520693582</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.9677091705</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="E11">
+        <v>-0.25206935819999998</v>
+      </c>
+      <c r="F11">
+        <v>0.96770917050000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>143.1</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>4.03</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>0.18</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>-0.6004202253</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.7996846585</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="E12">
+        <v>-0.60042022530000005</v>
+      </c>
+      <c r="F12">
+        <v>0.79968465850000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>-165.3</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>4.26</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>-0.18</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>0.2537579446</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.9672677528</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="E13">
+        <v>0.25375794460000001</v>
+      </c>
+      <c r="F13">
+        <v>0.96726775279999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>-173.28</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>4.18</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>0.1170174119</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0.9931298633</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="E14">
+        <v>0.11701741190000001</v>
+      </c>
+      <c r="F14">
+        <v>0.99312986329999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>179.27</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>4.07</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>0.13</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>-0.0127405588</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.9999188358</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="E15">
+        <v>-1.2740558799999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.99991883579999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>111.15</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>4.41</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>0.05</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>-0.9326390231</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.3608108265</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="E16">
+        <v>-0.93263902310000002</v>
+      </c>
+      <c r="F16">
+        <v>0.36081082650000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>-106.65</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>2.44</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>2.12</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>0.9580728995</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.2865245527</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="E17">
+        <v>0.95807289949999996</v>
+      </c>
+      <c r="F17">
+        <v>0.28652455269999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>-95.78</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>2.99</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>2.15</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>0.9949159235</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18">
+        <v>0.99491592350000002</v>
+      </c>
+      <c r="F18">
         <v>0.1007090122</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>-94.09</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>3.5</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>2.21</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>0.9974532464</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.071323357</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="E19">
+        <v>0.99745324639999999</v>
+      </c>
+      <c r="F19">
+        <v>7.1323357000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>-84.32</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>3.77</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>2.8</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>0.9950901785</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>-0.0989724038</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="E20">
+        <v>0.99509017850000003</v>
+      </c>
+      <c r="F20">
+        <v>-9.8972403799999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>-97.93</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>3.27</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>3.02</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>0.9904373617</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0.1379631567</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="E21">
+        <v>0.99043736169999996</v>
+      </c>
+      <c r="F21">
+        <v>0.13796315670000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>-102.45</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>3.37</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>0.9764845145</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.2155875526</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="E22">
+        <v>0.97648451449999996</v>
+      </c>
+      <c r="F22">
+        <v>0.21558755260000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>-78.39</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>3.85</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>3.62</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>0.97954014</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>-0.2012488862</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>-97.09</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>3.06</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>3.66</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>0.9923534953</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="E24">
+        <v>0.99235349530000005</v>
+      </c>
+      <c r="F24">
         <v>0.1234282803</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>-123.25</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>2.68</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>4.16</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>0.8362861558</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.5482932295</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="E25">
+        <v>0.83628615579999999</v>
+      </c>
+      <c r="F25">
+        <v>0.54829322950000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>-150.76</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>2.19</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>2.98</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>0.4884689548</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.8725812743</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="E26">
+        <v>0.48846895480000002</v>
+      </c>
+      <c r="F26">
+        <v>0.87258127429999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>-144.42</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27">
+        <v>-144.41999999999999</v>
+      </c>
+      <c r="C27">
         <v>1.96</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>3.51</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>0.581839109</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0.8133039108</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="E27">
+        <v>0.58183910900000002</v>
+      </c>
+      <c r="F27">
+        <v>0.81330391079999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>165.76</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>2.57</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>5.05</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>-0.2459841266</v>
-      </c>
-      <c r="F28" s="0" t="n">
+      <c r="E28">
+        <v>-0.24598412659999999</v>
+      </c>
+      <c r="F28">
         <v>0.9692738568</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>164.09</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="C29">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D29">
         <v>5.26</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>-0.27412707</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0.96169348</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="E29">
+        <v>-0.27412706999999997</v>
+      </c>
+      <c r="F29">
+        <v>0.96169347999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>-121.12</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>2.76</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>1.89</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>0.8560867283</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="E30">
+        <v>0.85608672829999999</v>
+      </c>
+      <c r="F30">
         <v>0.516832191</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>-146.94</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>2.08</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0.54551699</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.8380997635</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="D31">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.54551698999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.83809976350000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="C32">
         <v>1.3</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>1.9</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>0.0198954407</v>
-      </c>
-      <c r="F32" s="0" t="n">
+      <c r="E32">
+        <v>1.9895440699999999E-2</v>
+      </c>
+      <c r="F32">
         <v>-0.9998020661</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>8.69</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D33" s="0" t="n">
+      <c r="C33">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D33">
         <v>1.92</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>-0.1510882932</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <v>-0.9885202717</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="F33">
+        <v>-0.98852027170000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>-14.07</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>1.35</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>1.73</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>0.2431071546</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>-0.9699994389</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="E34">
+        <v>0.24310715460000001</v>
+      </c>
+      <c r="F34">
+        <v>-0.96999943889999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>-11.11</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D35" s="0" t="n">
+      <c r="C35">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D35">
         <v>1.66</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>0.1926932315</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>-0.9812590476</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="E35">
+        <v>0.19269323150000001</v>
+      </c>
+      <c r="F35">
+        <v>-0.98125904760000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>-26.43</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>1.28</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>1.35</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>0.4451041118</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>-0.895478827</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="E36">
+        <v>0.44510411179999998</v>
+      </c>
+      <c r="F36">
+        <v>-0.89547882700000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>-36.7</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="C37">
         <v>1.01</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>1.32</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>0.597625147</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>-0.8017756442</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="E37">
+        <v>0.59762514700000002</v>
+      </c>
+      <c r="F37">
+        <v>-0.80177564420000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>-46.33</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>1.24</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="D38">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E38">
         <v>0.723328792</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <v>-0.6905037717</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="F38">
+        <v>-0.69050377169999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>-60.01</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>1.32</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>0.99</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>0.8661126571</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>-0.4998488424</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="E39">
+        <v>0.86611265709999996</v>
+      </c>
+      <c r="F39">
+        <v>-0.49984884239999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>-61.05</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>1.37</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>0.87</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>0.8750424503</v>
-      </c>
-      <c r="F40" s="0" t="n">
+      <c r="E40">
+        <v>0.87504245030000005</v>
+      </c>
+      <c r="F40">
         <v>-0.4840461861</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>-48.95</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D41" s="0" t="n">
+      <c r="C41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D41">
         <v>0.9</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>0.7541367734</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>-0.6567173875</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="E41">
+        <v>0.75413677339999996</v>
+      </c>
+      <c r="F41">
+        <v>-0.65671738749999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>-67.21</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42">
+        <v>-67.209999999999994</v>
+      </c>
+      <c r="C42">
         <v>0.94</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>1.07</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>0.9219307718</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>-0.3873546851</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="E42">
+        <v>0.92193077180000005</v>
+      </c>
+      <c r="F42">
+        <v>-0.38735468509999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>-89.86</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>0.61</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>0.84</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>0.9999970148</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>-0.0024434585</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="E43">
+        <v>0.99999701480000003</v>
+      </c>
+      <c r="F43">
+        <v>-2.4434585000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>-51.41</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>0.96</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>1.18</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>0.781629348</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>-0.6237431862</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="E44">
+        <v>0.78162934799999995</v>
+      </c>
+      <c r="F44">
+        <v>-0.62374318620000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>-57.08</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>0.84</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0.8394302097</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>-0.5434674995</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="D45">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.83943020970000004</v>
+      </c>
+      <c r="F45">
+        <v>-0.54346749949999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>-24.32</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D46" s="0" t="n">
+      <c r="C46">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D46">
         <v>1.37</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>0.4118324733</v>
       </c>
-      <c r="F46" s="0" t="n">
-        <v>-0.9112595755</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="F46">
+        <v>-0.91125957550000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>-104.03</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>0.69</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>3.42</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>0.9701689233</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0.2424299081</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="E47">
+        <v>0.97016892330000004</v>
+      </c>
+      <c r="F47">
+        <v>0.24242990810000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>-117.11</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>0.48</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>3.88</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>0.8901332835</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0.4557002717</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="E48">
+        <v>0.89013328349999998</v>
+      </c>
+      <c r="F48">
+        <v>0.45570027169999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>-132.59</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>-0.02</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>3.43</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>0.7362152131</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0.6767474862</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="E49">
+        <v>0.73621521310000004</v>
+      </c>
+      <c r="F49">
+        <v>0.67674748620000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>-128.02</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="B50">
+        <v>-128.02000000000001</v>
+      </c>
+      <c r="C50">
         <v>-0.06</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>3.14</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>0.7877957992</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0.6159365055</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="E50">
+        <v>0.78779579919999998</v>
+      </c>
+      <c r="F50">
+        <v>0.61593650550000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>-135.28</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>-0.66</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>3.14</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>0.7036427758</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0.7105538995</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="E51">
+        <v>0.70364277580000001</v>
+      </c>
+      <c r="F51">
+        <v>0.71055389950000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>-145.93</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>-1.22</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>3.5</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>0.5602053464</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0.828353771</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="E52">
+        <v>0.56020534639999997</v>
+      </c>
+      <c r="F52">
+        <v>0.82835377099999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>-168.81</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>-1.3</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0.1940631393</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0.9809890407</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="D53">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E53">
+        <v>0.19406313929999999</v>
+      </c>
+      <c r="F53">
+        <v>0.98098904070000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>-172.83</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>-0.94</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>4.78</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>0.1248137464</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0.9921801896</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="E54">
+        <v>0.12481374639999999</v>
+      </c>
+      <c r="F54">
+        <v>0.99218018959999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>163.72</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="D55" s="0" t="n">
+      <c r="C55">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="D55">
         <v>5.09</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>-0.2803316566</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0.9599032047</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="E55">
+        <v>-0.28033165659999998</v>
+      </c>
+      <c r="F55">
+        <v>0.95990320470000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>160.84</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>-0.98</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>5.44</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>-0.3282072676</v>
-      </c>
-      <c r="F56" s="0" t="n">
+      <c r="E56">
+        <v>-0.32820726760000002</v>
+      </c>
+      <c r="F56">
         <v>0.9446057323</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>147.75</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>-0.88</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>5.77</v>
       </c>
-      <c r="E57" s="0" t="n">
-        <v>-0.5336145159</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0.8457278217</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="E57">
+        <v>-0.53361451589999997</v>
+      </c>
+      <c r="F57">
+        <v>0.84572782170000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>170.95</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>-1.92</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>4.84</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>-0.157296326</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>0.9875514497</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="E58">
+        <v>-0.15729632599999999</v>
+      </c>
+      <c r="F58">
+        <v>0.98755144969999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="0" t="n">
-        <v>-160.3</v>
-      </c>
-      <c r="C59" s="0" t="n">
+      <c r="B59">
+        <v>-160.30000000000001</v>
+      </c>
+      <c r="C59">
         <v>-1.86</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>0.3370952584</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0.9414705448</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="D59">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E59">
+        <v>0.33709525839999999</v>
+      </c>
+      <c r="F59">
+        <v>0.94147054480000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>-148.9</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>-1.59</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>3.46</v>
       </c>
-      <c r="E60" s="0" t="n">
-        <v>0.5165333289</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>0.8562670846</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="E60">
+        <v>0.51653332890000003</v>
+      </c>
+      <c r="F60">
+        <v>0.85626708460000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>-151.79</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="D61" s="0" t="n">
+      <c r="C61">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D61">
         <v>3.63</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>0.4727045741</v>
       </c>
-      <c r="F61" s="0" t="n">
-        <v>0.881220963</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="F61">
+        <v>0.88122096299999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>-127.17</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>-3.11</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>0.7968463762</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>0.6041819699</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="D62">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E62">
+        <v>0.79684637619999998</v>
+      </c>
+      <c r="F62">
+        <v>0.60418196989999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>-122.54</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>-2.74</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>0.44</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>0.8430161344</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>0.5378882757</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="E63">
+        <v>0.84301613440000001</v>
+      </c>
+      <c r="F63">
+        <v>0.53788827569999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>-85.91</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>-2.35</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>0.44</v>
       </c>
-      <c r="E64" s="0" t="n">
-        <v>0.9974532464</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>-0.071323357</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="E64">
+        <v>0.99745324639999999</v>
+      </c>
+      <c r="F64">
+        <v>-7.1323357000000004E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>131.37</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>-2.05</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="C65">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="D65">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E65">
         <v>-0.7504572289</v>
       </c>
-      <c r="F65" s="0" t="n">
-        <v>0.6609190175</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="F65">
+        <v>0.66091901750000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>-78.55</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>-1.56</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>0.53</v>
       </c>
-      <c r="E66" s="0" t="n">
-        <v>0.9800983128</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>-0.198512713</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="E66">
+        <v>0.98009831280000004</v>
+      </c>
+      <c r="F66">
+        <v>-0.19851271300000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>57.87</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>-1.3</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>0.87</v>
       </c>
-      <c r="E67" s="0" t="n">
-        <v>-0.8468435656</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>-0.5318420587</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="E67">
+        <v>-0.84684356559999996</v>
+      </c>
+      <c r="F67">
+        <v>-0.53184205870000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>79.87</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>-1.31</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>1.24</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <v>-0.9844112232</v>
-      </c>
-      <c r="F68" s="0" t="n">
+      <c r="E68">
+        <v>-0.98441122319999996</v>
+      </c>
+      <c r="F68">
         <v>-0.1758821867</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>-48.32</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>-1.59</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>0.88</v>
       </c>
-      <c r="E69" s="0" t="n">
-        <v>0.746870346</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>-0.6649696882</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="E69">
+        <v>0.74687034600000002</v>
+      </c>
+      <c r="F69">
+        <v>-0.66496968820000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>82.47</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>-1.84</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>1.27</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>-0.9913763821</v>
-      </c>
-      <c r="F70" s="0" t="n">
+      <c r="E70">
+        <v>-0.99137638210000001</v>
+      </c>
+      <c r="F70">
         <v>-0.1310452936</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>106.1</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>-2.29</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>-0.9607791542</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>0.2773146533</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="D71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E71">
+        <v>-0.96077915420000004</v>
+      </c>
+      <c r="F71">
+        <v>0.27731465329999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>-87.73</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>-2.29</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>0.75</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>0.9992152711</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>-0.0396086101</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="E72">
+        <v>0.99921527109999997</v>
+      </c>
+      <c r="F72">
+        <v>-3.9608610099999997E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>86.61</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>-2.1</v>
       </c>
-      <c r="D73" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>-0.9982501636</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>-0.059132147</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="D73">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E73">
+        <v>-0.99825016359999996</v>
+      </c>
+      <c r="F73">
+        <v>-5.9132147000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>-68.23</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>-0.96</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>0.26</v>
       </c>
-      <c r="E74" s="0" t="n">
-        <v>0.9286801473</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>-0.3708816306</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="E74">
+        <v>0.92868014730000004</v>
+      </c>
+      <c r="F74">
+        <v>-0.37088163060000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>91.95</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>-1.65</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>0.92</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>-0.999420902</v>
       </c>
-      <c r="F75" s="0" t="n">
-        <v>0.0340273505</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="F75">
+        <v>3.4027350499999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>127.87</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>-3.01</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>1.29</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>-0.7894056156</v>
       </c>
-      <c r="F76" s="0" t="n">
-        <v>0.6138719525</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="F76">
+        <v>0.61387195250000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>61.77</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>-2.36</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>-0.63</v>
       </c>
-      <c r="E77" s="0" t="n">
-        <v>-0.8810559043</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>-0.4730121495</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="E77">
+        <v>-0.88105590430000003</v>
+      </c>
+      <c r="F77">
+        <v>-0.47301214949999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>64.84</v>
       </c>
-      <c r="C78" s="0" t="n">
-        <v>-2.43</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>-0.905124082</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>-0.4251474994</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="C78">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="D78">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="E78">
+        <v>-0.90512408200000005</v>
+      </c>
+      <c r="F78">
+        <v>-0.42514749940000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <v>-33.63</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="D79" s="0" t="n">
+      <c r="B79">
+        <v>-33.630000000000003</v>
+      </c>
+      <c r="C79">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D79">
         <v>-1.4</v>
       </c>
-      <c r="E79" s="0" t="n">
-        <v>0.5538275899</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>-0.8326313714</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="E79">
+        <v>0.55382758990000003</v>
+      </c>
+      <c r="F79">
+        <v>-0.83263137139999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>-23.3</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>-2.04</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>-1.59</v>
       </c>
-      <c r="E80" s="0" t="n">
-        <v>0.3955455026</v>
-      </c>
-      <c r="F80" s="0" t="n">
+      <c r="E80">
+        <v>0.39554550259999999</v>
+      </c>
+      <c r="F80">
         <v>-0.9184463813</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>-62.77</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>-2.02</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>-1.89</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>0.8891769155</v>
       </c>
-      <c r="F81" s="0" t="n">
-        <v>-0.4575635617</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="F81">
+        <v>-0.45756356170000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>-70.23</v>
       </c>
-      <c r="C82" s="0" t="n">
-        <v>-2.26</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>-2.07</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>0.9410580027</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>-0.3382452298</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="C82">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="D82">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="E82">
+        <v>0.94105800269999995</v>
+      </c>
+      <c r="F82">
+        <v>-0.33824522979999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>-57.05</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>-2.35</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>-2.25</v>
       </c>
-      <c r="E83" s="0" t="n">
-        <v>0.8391455358</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>-0.5439069496</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="E83">
+        <v>0.83914553579999995</v>
+      </c>
+      <c r="F83">
+        <v>-0.54390694959999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <v>-74.24</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>-2.49</v>
-      </c>
-      <c r="D84" s="0" t="n">
+      <c r="B84">
+        <v>-74.239999999999995</v>
+      </c>
+      <c r="C84">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="D84">
         <v>-2.4</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>0.9624078465</v>
       </c>
-      <c r="F84" s="0" t="n">
-        <v>-0.2716084259</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="F84">
+        <v>-0.27160842590000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>-77.09</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>-2.73</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>-2.53</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>0.9747222148</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>-0.2234202405</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="D85">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="E85">
+        <v>0.97472221479999999</v>
+      </c>
+      <c r="F85">
+        <v>-0.22342024050000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="0" t="n">
-        <v>-73.65</v>
-      </c>
-      <c r="C86" s="0" t="n">
+      <c r="B86">
+        <v>-73.650000000000006</v>
+      </c>
+      <c r="C86">
         <v>-2.91</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>-2.49</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>0.9595599986</v>
-      </c>
-      <c r="F86" s="0" t="n">
+      <c r="D86">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="E86">
+        <v>0.95955999859999996</v>
+      </c>
+      <c r="F86">
         <v>-0.2815041901</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>-80.53</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>-3.05</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>-2.42</v>
       </c>
-      <c r="E87" s="0" t="n">
-        <v>0.9863718851</v>
-      </c>
-      <c r="F87" s="0" t="n">
+      <c r="E87">
+        <v>0.98637188509999996</v>
+      </c>
+      <c r="F87">
         <v>-0.1645311653</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>59.32</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>-1.78</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>-0.8600304323</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>-0.5102427417</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="D88">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E88">
+        <v>-0.86003043229999998</v>
+      </c>
+      <c r="F88">
+        <v>-0.51024274169999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>48.66</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>-1.53</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>-0.54</v>
       </c>
-      <c r="E89" s="0" t="n">
-        <v>-0.7508031824</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>-0.6605259884</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="E89">
+        <v>-0.75080318239999999</v>
+      </c>
+      <c r="F89">
+        <v>-0.66052598839999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>42.53</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>-1.69</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>-1.25</v>
       </c>
-      <c r="E90" s="0" t="n">
-        <v>-0.6759761525</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>-0.7369234976</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="E90">
+        <v>-0.67597615249999998</v>
+      </c>
+      <c r="F90">
+        <v>-0.73692349759999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>-14.13</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>-1.93</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>-1.64</v>
       </c>
-      <c r="E91" s="0" t="n">
-        <v>0.2441228022</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>-0.9697443258</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="E91">
+        <v>0.24412280219999999</v>
+      </c>
+      <c r="F91">
+        <v>-0.96974432580000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="0" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="C92" s="0" t="n">
+      <c r="B92">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="C92">
         <v>1.27</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>-2.09</v>
       </c>
-      <c r="E92" s="0" t="n">
-        <v>-0.5516458706</v>
-      </c>
-      <c r="F92" s="0" t="n">
+      <c r="E92">
+        <v>-0.55164587060000003</v>
+      </c>
+      <c r="F92">
         <v>-0.8340784336</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>24.69</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>0.88</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>-2.61</v>
       </c>
-      <c r="E93" s="0" t="n">
-        <v>-0.4177085028</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>-0.9085810953</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="E93">
+        <v>-0.41770850279999999</v>
+      </c>
+      <c r="F93">
+        <v>-0.90858109529999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>17.66</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>1.33</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>-2.42</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>-0.3033679037</v>
       </c>
-      <c r="F94" s="0" t="n">
-        <v>-0.9528735042</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="F94">
+        <v>-0.95287350420000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>17.45</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>1.47</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>-2.46</v>
       </c>
-      <c r="E95" s="0" t="n">
-        <v>-0.2998734101</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>-0.9539790029</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="E95">
+        <v>-0.29987341010000002</v>
+      </c>
+      <c r="F95">
+        <v>-0.95397900290000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>12.99</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>1.45</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>-2.73</v>
       </c>
-      <c r="E96" s="0" t="n">
-        <v>-0.2247809913</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>-0.9744093113</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="E96">
+        <v>-0.22478099130000001</v>
+      </c>
+      <c r="F96">
+        <v>-0.97440931129999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>4.82</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>1.47</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>-2.98</v>
       </c>
-      <c r="E97" s="0" t="n">
-        <v>-0.0840256799</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>-0.9964635895</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="E97">
+        <v>-8.4025679899999997E-2</v>
+      </c>
+      <c r="F97">
+        <v>-0.99646358950000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>-12.61</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>0.96</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>-3</v>
       </c>
-      <c r="E98" s="0" t="n">
-        <v>0.2183135677</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>-0.9758786739</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="E98">
+        <v>0.21831356769999999</v>
+      </c>
+      <c r="F98">
+        <v>-0.97587867390000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>-13.86</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>1.32</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>-3.23</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>0.239550296</v>
       </c>
-      <c r="F99" s="0" t="n">
-        <v>-0.9708839558</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="F99">
+        <v>-0.97088395579999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>-28.66</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>1.26</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>-3.32</v>
       </c>
-      <c r="E100" s="0" t="n">
-        <v>0.4796110169</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>-0.8774812092</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="E100">
+        <v>0.47961101690000002</v>
+      </c>
+      <c r="F100">
+        <v>-0.87748120919999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>-46.53</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>1.06</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>-3.34</v>
       </c>
-      <c r="E101" s="0" t="n">
-        <v>0.7257346932</v>
-      </c>
-      <c r="F101" s="0" t="n">
-        <v>-0.6879746762</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="E101">
+        <v>0.72573469319999995</v>
+      </c>
+      <c r="F101">
+        <v>-0.68797467619999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>-42.42</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>0.86</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>-3.32</v>
       </c>
-      <c r="E102" s="0" t="n">
-        <v>0.674560116</v>
-      </c>
-      <c r="F102" s="0" t="n">
+      <c r="E102">
+        <v>0.67456011599999999</v>
+      </c>
+      <c r="F102">
         <v>-0.7382199197</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>-18.72</v>
       </c>
-      <c r="C103" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D103" s="0" t="n">
+      <c r="C103">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D103">
         <v>-2.98</v>
       </c>
-      <c r="E103" s="0" t="n">
-        <v>0.3209436098</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>-0.947098305</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="E103">
+        <v>0.32094360979999997</v>
+      </c>
+      <c r="F103">
+        <v>-0.94709830500000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>-15.5</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>1.05</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>-2.94</v>
       </c>
-      <c r="E104" s="0" t="n">
-        <v>0.2672383761</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>-0.9636304532</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="E104">
+        <v>0.26723837610000001</v>
+      </c>
+      <c r="F104">
+        <v>-0.96363045319999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>-15.88</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>0.98</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>-2.83</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>0.273623491</v>
       </c>
-      <c r="F105" s="0" t="n">
-        <v>-0.9618368808</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="F105">
+        <v>-0.96183688079999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C106" s="0" t="n">
+      <c r="B106">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C106">
         <v>0.83</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>-2.71</v>
       </c>
-      <c r="E106" s="0" t="n">
-        <v>-0.0357716163</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>-0.9993599909</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="E106">
+        <v>-3.5771616300000003E-2</v>
+      </c>
+      <c r="F106">
+        <v>-0.99935999090000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>104.75</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>0.4</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>-4.68</v>
       </c>
-      <c r="E107" s="0" t="n">
-        <v>-0.9670459389</v>
-      </c>
-      <c r="F107" s="0" t="n">
-        <v>0.2546019482</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="E107">
+        <v>-0.96704593890000001</v>
+      </c>
+      <c r="F107">
+        <v>0.25460194819999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>113.72</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>0.44</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>-4.99</v>
       </c>
-      <c r="E108" s="0" t="n">
-        <v>-0.9155222313</v>
-      </c>
-      <c r="F108" s="0" t="n">
-        <v>0.4022673787</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="E108">
+        <v>-0.91552223129999999</v>
+      </c>
+      <c r="F108">
+        <v>0.40226737870000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="0" t="n">
-        <v>135.89</v>
-      </c>
-      <c r="C109" s="0" t="n">
+      <c r="B109">
+        <v>135.88999999999999</v>
+      </c>
+      <c r="C109">
         <v>0.42</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>-5.17</v>
       </c>
-      <c r="E109" s="0" t="n">
-        <v>-0.6960381227</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>0.7180048271</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="E109">
+        <v>-0.69603812269999998</v>
+      </c>
+      <c r="F109">
+        <v>0.71800482710000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>116.75</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>0.68</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>-5.12</v>
       </c>
-      <c r="E110" s="0" t="n">
-        <v>-0.8929789434</v>
-      </c>
-      <c r="F110" s="0" t="n">
-        <v>0.450098441</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="E110">
+        <v>-0.89297894339999995</v>
+      </c>
+      <c r="F110">
+        <v>0.45009844100000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111">
         <v>110.27</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>0.64</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>-4.85</v>
-      </c>
-      <c r="E111" s="0" t="n">
-        <v>-0.9380704611</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>0.3464445265</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="D111">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="E111">
+        <v>-0.93807046110000003</v>
+      </c>
+      <c r="F111">
+        <v>0.34644452650000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112">
         <v>75.69</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>0.73</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>-4.58</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>-0.9689726072</v>
       </c>
-      <c r="F112" s="0" t="n">
-        <v>-0.2471681341</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="F112">
+        <v>-0.24716813409999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113">
         <v>76.41</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>0.96</v>
       </c>
-      <c r="D113" s="0" t="n">
-        <v>-4.61</v>
-      </c>
-      <c r="E113" s="0" t="n">
-        <v>-0.9720020258</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>-0.2349724703</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="D113">
+        <v>-4.6100000000000003</v>
+      </c>
+      <c r="E113">
+        <v>-0.97200202579999995</v>
+      </c>
+      <c r="F113">
+        <v>-0.23497247030000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="0" t="n">
-        <v>76.96</v>
-      </c>
-      <c r="C114" s="0" t="n">
+      <c r="B114">
+        <v>76.959999999999994</v>
+      </c>
+      <c r="C114">
         <v>0.81</v>
       </c>
-      <c r="D114" s="0" t="n">
-        <v>-4.85</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>-0.9742127819</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>-0.2256312381</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="D114">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="E114">
+        <v>-0.97421278190000005</v>
+      </c>
+      <c r="F114">
+        <v>-0.22563123809999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>66.02</v>
       </c>
-      <c r="C115" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>-4.85</v>
-      </c>
-      <c r="E115" s="0" t="n">
-        <v>-0.9136873799</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>-0.4064177308</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="C115">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D115">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="E115">
+        <v>-0.91368737990000004</v>
+      </c>
+      <c r="F115">
+        <v>-0.40641773079999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116">
         <v>48.32</v>
       </c>
-      <c r="C116" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>-4.98</v>
-      </c>
-      <c r="E116" s="0" t="n">
-        <v>-0.746870346</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>-0.6649696882</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="C116">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D116">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="E116">
+        <v>-0.74687034600000002</v>
+      </c>
+      <c r="F116">
+        <v>-0.66496968820000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117">
         <v>29.29</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117">
         <v>1.31</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117">
         <v>-5.12</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117">
         <v>-0.4892302395</v>
       </c>
-      <c r="F117" s="0" t="n">
-        <v>-0.8721546725</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="F117">
+        <v>-0.87215467250000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118">
         <v>28.86</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118">
         <v>1.47</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118">
         <v>-5.19</v>
       </c>
-      <c r="E118" s="0" t="n">
-        <v>-0.482671076</v>
-      </c>
-      <c r="F118" s="0" t="n">
-        <v>-0.8758017084</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="E118">
+        <v>-0.48267107599999998</v>
+      </c>
+      <c r="F118">
+        <v>-0.87580170840000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119">
         <v>53.62</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119">
         <v>1.45</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119">
         <v>-4.83</v>
       </c>
-      <c r="E119" s="0" t="n">
-        <v>-0.8051008906</v>
-      </c>
-      <c r="F119" s="0" t="n">
-        <v>-0.5931378895</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="E119">
+        <v>-0.80510089060000001</v>
+      </c>
+      <c r="F119">
+        <v>-0.59313788950000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120">
         <v>56.83</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120">
         <v>1.41</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120">
         <v>-4.55</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120">
         <v>-0.8370509022</v>
       </c>
-      <c r="F120" s="0" t="n">
-        <v>-0.5471250197</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="F120">
+        <v>-0.54712501970000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121">
         <v>84.77</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121">
         <v>1.02</v>
       </c>
-      <c r="D121" s="0" t="n">
-        <v>-4.89</v>
-      </c>
-      <c r="E121" s="0" t="n">
-        <v>-0.995836807</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>-0.0911540116</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="D121">
+        <v>-4.8899999999999997</v>
+      </c>
+      <c r="E121">
+        <v>-0.99583680699999999</v>
+      </c>
+      <c r="F121">
+        <v>-9.1154011600000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122">
         <v>-21.91</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>-0.88</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122">
         <v>-5.17</v>
       </c>
-      <c r="E122" s="0" t="n">
-        <v>0.3731497149</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>-0.9277711411</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="E122">
+        <v>0.37314971489999998</v>
+      </c>
+      <c r="F122">
+        <v>-0.92777114110000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123">
         <v>-25.24</v>
       </c>
-      <c r="C123" s="0" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="D123" s="0" t="n">
+      <c r="C123">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="D123">
         <v>-5.04</v>
       </c>
-      <c r="E123" s="0" t="n">
-        <v>0.4264108762</v>
-      </c>
-      <c r="F123" s="0" t="n">
+      <c r="E123">
+        <v>0.42641087620000001</v>
+      </c>
+      <c r="F123">
         <v>-0.904529582</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124">
         <v>28.03</v>
       </c>
-      <c r="C124" s="0" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="D124" s="0" t="n">
-        <v>-4.73</v>
-      </c>
-      <c r="E124" s="0" t="n">
-        <v>-0.4699338087</v>
-      </c>
-      <c r="F124" s="0" t="n">
-        <v>-0.8827016571</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="C124">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="D124">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="E124">
+        <v>-0.46993380870000001</v>
+      </c>
+      <c r="F124">
+        <v>-0.88270165710000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125">
         <v>-0.81</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>-0.7</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>-4.76</v>
       </c>
-      <c r="E125" s="0" t="n">
-        <v>0.014136696</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>-0.9999000719</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="E125">
+        <v>1.4136696000000001E-2</v>
+      </c>
+      <c r="F125">
+        <v>-0.99990007189999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126">
         <v>47.33</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126">
         <v>-0.74</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>-4.46</v>
       </c>
-      <c r="E126" s="0" t="n">
-        <v>-0.735269578</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>-0.6777747765</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="E126">
+        <v>-0.73526957800000003</v>
+      </c>
+      <c r="F126">
+        <v>-0.67777477649999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127">
         <v>21.69</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127">
         <v>-0.48</v>
       </c>
-      <c r="D127" s="0" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="E127" s="0" t="n">
+      <c r="D127">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="E127">
         <v>-0.3695845874</v>
       </c>
-      <c r="F127" s="0" t="n">
-        <v>-0.9291970904</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="F127">
+        <v>-0.92919709039999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128">
         <v>6.63</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128">
         <v>-0.78</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128">
         <v>-4.12</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128">
         <v>-0.1154572635</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128">
         <v>-0.9933124485</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129">
         <v>137.28</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>-1.33</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>-3.83</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>-0.6784161621</v>
       </c>
-      <c r="F129" s="0" t="n">
-        <v>0.734677828</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="F129">
+        <v>0.73467782800000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130">
         <v>76.31</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130">
         <v>-1.56</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130">
         <v>-3.62</v>
       </c>
-      <c r="E130" s="0" t="n">
-        <v>-0.9715904413</v>
-      </c>
-      <c r="F130" s="0" t="n">
+      <c r="E130">
+        <v>-0.97159044130000005</v>
+      </c>
+      <c r="F130">
         <v>-0.2366685751</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131">
         <v>26.33</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131">
         <v>-1.57</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>-3.89</v>
       </c>
-      <c r="E131" s="0" t="n">
-        <v>-0.4435405293</v>
-      </c>
-      <c r="F131" s="0" t="n">
-        <v>-0.896254316</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="E131">
+        <v>-0.44354052929999999</v>
+      </c>
+      <c r="F131">
+        <v>-0.89625431600000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132">
         <v>127.81</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>-1.81</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132">
         <v>-3.77</v>
       </c>
-      <c r="E132" s="0" t="n">
-        <v>-0.7900480279</v>
-      </c>
-      <c r="F132" s="0" t="n">
-        <v>0.6130449524</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="E132">
+        <v>-0.79004802789999995</v>
+      </c>
+      <c r="F132">
+        <v>0.61304495240000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133">
         <v>82.98</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133">
         <v>-1.93</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133">
         <v>-3.89</v>
       </c>
-      <c r="E133" s="0" t="n">
-        <v>-0.9925035507</v>
-      </c>
-      <c r="F133" s="0" t="n">
-        <v>-0.1222157999</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="E133">
+        <v>-0.99250355069999996</v>
+      </c>
+      <c r="F133">
+        <v>-0.12221579990000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="0" t="n">
-        <v>131.7</v>
-      </c>
-      <c r="C134" s="0" t="n">
+      <c r="B134">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="C134">
         <v>-2.16</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134">
         <v>-3.74</v>
       </c>
-      <c r="E134" s="0" t="n">
-        <v>-0.7466381823</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>0.6652303547</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+      <c r="E134">
+        <v>-0.74663818230000001</v>
+      </c>
+      <c r="F134">
+        <v>0.66523035470000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="0" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="C135" s="0" t="n">
-        <v>-2.45</v>
-      </c>
-      <c r="D135" s="0" t="n">
+      <c r="B135">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="C135">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="D135">
         <v>-3.88</v>
       </c>
-      <c r="E135" s="0" t="n">
-        <v>-0.7408045963</v>
-      </c>
-      <c r="F135" s="0" t="n">
+      <c r="E135">
+        <v>-0.74080459629999995</v>
+      </c>
+      <c r="F135">
         <v>0.6717205893</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="0" t="n">
-        <v>77.99</v>
-      </c>
-      <c r="C136" s="0" t="n">
+      <c r="B136">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="C136">
         <v>-1.97</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136">
         <v>-3.76</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136">
         <v>-0.9781112984</v>
       </c>
-      <c r="F136" s="0" t="n">
-        <v>-0.2080824066</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="F136">
+        <v>-0.20808240659999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="0" t="n">
-        <v>145.55</v>
-      </c>
-      <c r="C137" s="0" t="n">
+      <c r="B137">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="C137">
         <v>2.6</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137">
         <v>-5.2</v>
       </c>
-      <c r="E137" s="0" t="n">
-        <v>-0.5656868356</v>
-      </c>
-      <c r="F137" s="0" t="n">
-        <v>0.8246201574</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+      <c r="E137">
+        <v>-0.56568683559999999</v>
+      </c>
+      <c r="F137">
+        <v>0.82462015740000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138">
         <v>124.11</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138">
         <v>2.69</v>
       </c>
-      <c r="D138" s="0" t="n">
-        <v>-4.65</v>
-      </c>
-      <c r="E138" s="0" t="n">
-        <v>-0.827962472</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>0.5607835098</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="D138">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="E138">
+        <v>-0.82796247199999995</v>
+      </c>
+      <c r="F138">
+        <v>0.56078350980000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139">
         <v>110.17</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139">
         <v>2.39</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139">
         <v>-4.08</v>
       </c>
-      <c r="E139" s="0" t="n">
-        <v>-0.9386736918</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>0.3448067579</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="E139">
+        <v>-0.93867369180000004</v>
+      </c>
+      <c r="F139">
+        <v>0.34480675789999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140">
         <v>91.39</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140">
         <v>2.64</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140">
         <v>-3.63</v>
       </c>
-      <c r="E140" s="0" t="n">
-        <v>-0.9997057388</v>
-      </c>
-      <c r="F140" s="0" t="n">
-        <v>0.024257697</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="E140">
+        <v>-0.99970573880000002</v>
+      </c>
+      <c r="F140">
+        <v>2.4257697000000002E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141">
         <v>116.06</v>
       </c>
-      <c r="C141" s="0" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="D141" s="0" t="n">
+      <c r="C141">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D141">
         <v>-3.3</v>
       </c>
-      <c r="E141" s="0" t="n">
-        <v>-0.8983344924</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>0.4393121212</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="E141">
+        <v>-0.89833449239999996</v>
+      </c>
+      <c r="F141">
+        <v>0.43931212120000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142">
         <v>109.76</v>
       </c>
-      <c r="C142" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D142" s="0" t="n">
+      <c r="C142">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D142">
         <v>-2.96</v>
       </c>
-      <c r="E142" s="0" t="n">
-        <v>-0.9411170233</v>
-      </c>
-      <c r="F142" s="0" t="n">
-        <v>0.3380809791</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="E142">
+        <v>-0.94111702330000002</v>
+      </c>
+      <c r="F142">
+        <v>0.33808097910000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143">
         <v>100.29</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143">
         <v>2.85</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143">
         <v>-3.31</v>
       </c>
-      <c r="E143" s="0" t="n">
-        <v>-0.9839162298</v>
-      </c>
-      <c r="F143" s="0" t="n">
-        <v>0.1786304921</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="E143">
+        <v>-0.98391622980000004</v>
+      </c>
+      <c r="F143">
+        <v>0.17863049210000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144">
         <v>83.1</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144">
         <v>3.39</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144">
         <v>-3.49</v>
       </c>
-      <c r="E144" s="0" t="n">
-        <v>-0.9927573419</v>
-      </c>
-      <c r="F144" s="0" t="n">
-        <v>-0.1201368388</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="E144">
+        <v>-0.99275734189999998</v>
+      </c>
+      <c r="F144">
+        <v>-0.12013683880000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" s="0" t="n">
-        <v>76.24</v>
-      </c>
-      <c r="C145" s="0" t="n">
+      <c r="B145">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="C145">
         <v>3.71</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145">
         <v>-3.43</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145">
         <v>-0.971300571</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145">
         <v>-0.2378554199</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146">
         <v>74.16</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146">
         <v>3.4</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146">
         <v>-3.03</v>
       </c>
-      <c r="E146" s="0" t="n">
-        <v>-0.9620276716</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>-0.2729519355</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="E146">
+        <v>-0.96202767160000002</v>
+      </c>
+      <c r="F146">
+        <v>-0.27295193550000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147">
         <v>145</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147">
         <v>87.24</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147">
         <v>3.41</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147">
         <v>-3.32</v>
       </c>
-      <c r="E147" s="0" t="n">
-        <v>-0.9988399975</v>
-      </c>
-      <c r="F147" s="0" t="n">
-        <v>-0.0481524597</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+      <c r="E147">
+        <v>-0.99883999749999997</v>
+      </c>
+      <c r="F147">
+        <v>-4.8152459699999997E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148">
         <v>146</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148">
         <v>91.45</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148">
         <v>2.81</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148">
         <v>-3.41</v>
       </c>
-      <c r="E148" s="0" t="n">
-        <v>-0.999679788</v>
-      </c>
-      <c r="F148" s="0" t="n">
-        <v>0.0253045729</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="E148">
+        <v>-0.99967978800000001</v>
+      </c>
+      <c r="F148">
+        <v>2.5304572899999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149">
         <v>101.58</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149">
         <v>2.39</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149">
         <v>-2.78</v>
       </c>
-      <c r="E149" s="0" t="n">
-        <v>-0.9796453794</v>
-      </c>
-      <c r="F149" s="0" t="n">
-        <v>0.2007359726</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+      <c r="E149">
+        <v>-0.97964537939999996</v>
+      </c>
+      <c r="F149">
+        <v>0.20073597260000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150">
         <v>114.61</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150">
         <v>2.09</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150">
         <v>-3.5</v>
       </c>
-      <c r="E150" s="0" t="n">
-        <v>-0.9091634405</v>
-      </c>
-      <c r="F150" s="0" t="n">
+      <c r="E150">
+        <v>-0.90916344049999998</v>
+      </c>
+      <c r="F150">
         <v>0.4164394776</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151">
         <v>89.09</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151">
         <v>3.21</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151">
         <v>-2.76</v>
       </c>
-      <c r="E151" s="0" t="n">
-        <v>-0.9998738758</v>
-      </c>
-      <c r="F151" s="0" t="n">
-        <v>-0.0158818285</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="1" t="n">
-        <f aca="false">G152+I152</f>
-        <v>-4.10828562227319</v>
-      </c>
-      <c r="D152" s="1" t="n">
-        <f aca="false">H152+J152</f>
-        <v>0.272654659766264</v>
-      </c>
-      <c r="G152" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H152" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.391714377726812</v>
-      </c>
-      <c r="J152" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.272654659766264</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="1" t="n">
-        <f aca="false">G153+I153</f>
-        <v>-4.33980061978784</v>
-      </c>
-      <c r="D153" s="1" t="n">
-        <f aca="false">H153+J153</f>
-        <v>1.53461481095621</v>
-      </c>
-      <c r="G153" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H153" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.160199380212164</v>
-      </c>
-      <c r="J153" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.534614810956205</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="1" t="n">
-        <f aca="false">G154+I154</f>
-        <v>-3.81899783340965</v>
-      </c>
-      <c r="D154" s="1" t="n">
-        <f aca="false">H154+J154</f>
-        <v>2.40165616029743</v>
-      </c>
-      <c r="G154" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H154" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.681002166590346</v>
-      </c>
-      <c r="J154" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.401656160297433</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="1" t="n">
-        <f aca="false">G155+I155</f>
-        <v>-4.4471051373139</v>
-      </c>
-      <c r="D155" s="1" t="n">
-        <f aca="false">H155+J155</f>
-        <v>3.46002394628266</v>
-      </c>
-      <c r="G155" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H155" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I155" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0528948626861045</v>
-      </c>
-      <c r="J155" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.460023946282664</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="1" t="n">
-        <f aca="false">G156+I156</f>
-        <v>-3.70236989660986</v>
-      </c>
-      <c r="D156" s="1" t="n">
-        <f aca="false">H156+J156</f>
-        <v>4.45859918219281</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.797630103390139</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.458599182192805</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="1" t="n">
-        <f aca="false">G157+I157</f>
-        <v>-3.64795464655648</v>
-      </c>
-      <c r="D157" s="1" t="n">
-        <f aca="false">H157+J157</f>
-        <v>5.94019585111501</v>
-      </c>
-      <c r="G157" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H157" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I157" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.852045353443521</v>
-      </c>
-      <c r="J157" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.940195851115011</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1" t="n">
-        <f aca="false">G158+I158</f>
-        <v>-3.95037844241525</v>
-      </c>
-      <c r="D158" s="1" t="n">
-        <f aca="false">H158+J158</f>
-        <v>-0.95064360484892</v>
-      </c>
-      <c r="G158" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H158" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I158" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.549621557584746</v>
-      </c>
-      <c r="J158" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.0493563951510797</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1" t="n">
-        <f aca="false">G159+I159</f>
-        <v>-3.88304060076983</v>
-      </c>
-      <c r="D159" s="1" t="n">
-        <f aca="false">H159+J159</f>
-        <v>-1.12456403367975</v>
-      </c>
-      <c r="G159" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H159" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I159" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.616959399230174</v>
-      </c>
-      <c r="J159" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.87543596632025</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1" t="n">
-        <f aca="false">G160+I160</f>
-        <v>-4.15117168167192</v>
-      </c>
-      <c r="D160" s="1" t="n">
-        <f aca="false">H160+J160</f>
-        <v>-2.84766882877237</v>
-      </c>
-      <c r="G160" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H160" s="0" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I160" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.34882831832808</v>
-      </c>
-      <c r="J160" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.152331171227627</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1" t="n">
-        <f aca="false">G161+I161</f>
-        <v>-3.73203646708003</v>
-      </c>
-      <c r="D161" s="1" t="n">
-        <f aca="false">H161+J161</f>
-        <v>-3.17452454087275</v>
-      </c>
-      <c r="G161" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H161" s="0" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I161" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.767963532919974</v>
-      </c>
-      <c r="J161" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.825475459127251</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1" t="n">
-        <f aca="false">G162+I162</f>
-        <v>-3.97079504569487</v>
-      </c>
-      <c r="D162" s="1" t="n">
-        <f aca="false">H162+J162</f>
-        <v>-4.44268216890854</v>
-      </c>
-      <c r="G162" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H162" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I162" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.529204954305131</v>
-      </c>
-      <c r="J162" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.557317831091459</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1" t="n">
-        <f aca="false">G163+I163</f>
-        <v>-4.22220247866524</v>
-      </c>
-      <c r="D163" s="1" t="n">
-        <f aca="false">H163+J163</f>
-        <v>-5.54931270361957</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H163" s="0" t="n">
-        <v>-6</v>
-      </c>
-      <c r="I163" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.277797521334756</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.450687296380428</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1" t="n">
-        <f aca="false">G164+I164</f>
-        <v>-3.89929964490757</v>
-      </c>
-      <c r="D164" s="1" t="n">
-        <f aca="false">H164+J164</f>
-        <v>0.467710755345836</v>
-      </c>
-      <c r="G164" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H164" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.600700355092435</v>
-      </c>
-      <c r="J164" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.467710755345836</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1" t="n">
-        <f aca="false">G165+I165</f>
-        <v>-3.87170032343123</v>
-      </c>
-      <c r="D165" s="1" t="n">
-        <f aca="false">H165+J165</f>
-        <v>1.81003890878577</v>
-      </c>
-      <c r="G165" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H165" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.628299676568772</v>
-      </c>
-      <c r="J165" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.810038908785766</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1" t="n">
-        <f aca="false">G166+I166</f>
-        <v>-4.35922353322918</v>
-      </c>
-      <c r="D166" s="1" t="n">
-        <f aca="false">H166+J166</f>
-        <v>-0.325693913701194</v>
-      </c>
-      <c r="G166" s="0" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="H166" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I166" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.140776466770825</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.674306086298806</v>
+      <c r="E151">
+        <v>-0.99987387579999998</v>
+      </c>
+      <c r="F151">
+        <v>-1.58818285E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>